--- a/docs/database.xlsx
+++ b/docs/database.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1706346218" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1706346218" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1706346218"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1706346218"/>
+      <pm:revision xmlns:pm="smNativeData" day="1706358923" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1706358923" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1706358923"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1706358923"/>
     </ext>
   </extLst>
 </workbook>
@@ -107,7 +107,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706346218" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706358923" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -129,7 +129,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706346218" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1706358923" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -154,7 +154,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706346218"/>
+          <pm:border xmlns:pm="smNativeData" id="1706358923"/>
         </ext>
       </extLst>
     </border>
@@ -173,7 +173,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706346218"/>
+          <pm:border xmlns:pm="smNativeData" id="1706358923"/>
         </ext>
       </extLst>
     </border>
@@ -192,7 +192,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706346218">
+          <pm:border xmlns:pm="smNativeData" id="1706358923">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -215,7 +215,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1706346218" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1706358923" count="1">
         <pm:charStyle name="Обычный" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -543,7 +543,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1706346218" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1706358923" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -552,16 +552,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1706346218" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1706346218" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706346218" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706346218" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1706358923" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1706358923" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706358923" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706358923" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706346218" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706358923" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -575,7 +575,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -670,7 +670,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1706346218" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1706358923" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -679,16 +679,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1706346218" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1706346218" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706346218" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706346218" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1706358923" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1706358923" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706358923" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706358923" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706346218" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706358923" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -741,7 +741,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1706346218" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1706358923" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -750,16 +750,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1706346218" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1706346218" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706346218" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706346218" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1706358923" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1706358923" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706358923" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706358923" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706346218" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706358923" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
